--- a/demo.xlsx
+++ b/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>ID</t>
   </si>
@@ -22,10 +22,7 @@
     <t>術前治療効果判定</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>CR</t>
+    <t>未判定</t>
   </si>
 </sst>
 </file>
@@ -409,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
